--- a/wyniki/only_quest_a.xlsx
+++ b/wyniki/only_quest_a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siema\Desktop\badanka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\uczelnia\magister\PRACA DYPLOMOWA\wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F105C92-B190-4A9F-B568-810F2B4DFFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8807C7C3-043F-412D-9443-BE171ED909A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FBE8D2D-ADB6-4FF7-8CF0-13D3B4E7F913}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Video Game Narrative Measuremen'!$A$1:$BA$14</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Video Game Narrative Measuremen'!$A$1:$BA$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
   <si>
     <t>Sygnatura czasowa</t>
   </si>
@@ -448,6 +448,24 @@
   </si>
   <si>
     <t>Kolumna4</t>
+  </si>
+  <si>
+    <t>2024/06/05 2:18:16 PM EEST</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>10-15h</t>
+  </si>
+  <si>
+    <t>the npcs felt more alive but also harder to grasp since i had to ask questions</t>
+  </si>
+  <si>
+    <t>it was interesting trying to come up with good questions</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -609,8 +627,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87D59F7E-8B8B-48FF-BC4B-587F823DF10B}" name="Video_Game_Narrative_Measurement___ver__A" displayName="Video_Game_Narrative_Measurement___ver__A" ref="A1:BA14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:BA14" xr:uid="{87D59F7E-8B8B-48FF-BC4B-587F823DF10B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87D59F7E-8B8B-48FF-BC4B-587F823DF10B}" name="Video_Game_Narrative_Measurement___ver__A" displayName="Video_Game_Narrative_Measurement___ver__A" ref="A1:BA15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:BA15" xr:uid="{87D59F7E-8B8B-48FF-BC4B-587F823DF10B}"/>
   <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{94F648DE-5537-4D18-9EB7-A5A6C462BB3F}" uniqueName="1" name="Sygnatura czasowa" queryTableFieldId="1" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{384EBFFA-67C7-47FC-AEC9-C400D88BD845}" uniqueName="2" name="Nazwa użytkownika" queryTableFieldId="2" dataDxfId="12"/>
@@ -987,9 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2061948-B807-48BB-BF18-C3B1713F78A8}">
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AS15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1339,16 +1359,16 @@
       <c r="AS2">
         <v>2</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>56</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>57</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1488,16 +1508,16 @@
       <c r="AS3">
         <v>2</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AX3" t="s">
         <v>65</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AY3" t="s">
         <v>66</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AZ3" t="s">
         <v>67</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BA3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1637,16 +1657,16 @@
       <c r="AS4">
         <v>1</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AX4" t="s">
         <v>74</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AY4" t="s">
         <v>75</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AZ4" t="s">
         <v>73</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BA4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1786,16 +1806,16 @@
       <c r="AS5">
         <v>1</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AX5" t="s">
         <v>80</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AY5" t="s">
         <v>81</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AZ5" t="s">
         <v>82</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="BA5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1935,16 +1955,16 @@
       <c r="AS6">
         <v>1</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AX6" t="s">
         <v>87</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AY6" t="s">
         <v>88</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AZ6" t="s">
         <v>89</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="BA6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2084,16 +2104,16 @@
       <c r="AS7">
         <v>2</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AX7" t="s">
         <v>94</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AY7" t="s">
         <v>95</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AZ7" t="s">
         <v>93</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="BA7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2233,16 +2253,16 @@
       <c r="AS8">
         <v>5</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AX8" t="s">
         <v>99</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AY8" t="s">
         <v>100</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AZ8" t="s">
         <v>101</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="BA8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2382,16 +2402,16 @@
       <c r="AS9">
         <v>1</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AX9" t="s">
         <v>107</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AY9" t="s">
         <v>105</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AZ9" t="s">
         <v>105</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="BA9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2531,16 +2551,16 @@
       <c r="AS10">
         <v>1</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AX10" t="s">
         <v>109</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AY10" t="s">
         <v>110</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AZ10" t="s">
         <v>111</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="BA10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2680,16 +2700,16 @@
       <c r="AS11">
         <v>4</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AX11" t="s">
         <v>115</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AY11" t="s">
         <v>116</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AZ11" t="s">
         <v>114</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="BA11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2829,16 +2849,16 @@
       <c r="AS12">
         <v>2</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AX12" t="s">
         <v>121</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AY12" t="s">
         <v>119</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AZ12" t="s">
         <v>120</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="BA12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2978,16 +2998,16 @@
       <c r="AS13">
         <v>2</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AX13" t="s">
         <v>123</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AY13" t="s">
         <v>123</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AZ13" t="s">
         <v>123</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="BA13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3127,17 +3147,166 @@
       <c r="AS14">
         <v>5</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AX14" t="s">
         <v>126</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AY14" t="s">
         <v>126</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AZ14" t="s">
         <v>127</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="BA14" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>4</v>
+      </c>
+      <c r="AE15">
+        <v>4</v>
+      </c>
+      <c r="AF15">
+        <v>4</v>
+      </c>
+      <c r="AG15">
+        <v>4</v>
+      </c>
+      <c r="AH15">
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <v>4</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <v>4</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>4</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
